--- a/PCAcombined/PCAcombined_predicted_factors_matrix_8.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1104437813623645</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.0842903935991491</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.057459662021329</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03038905690623586</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003393038513893411</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.02330039112021575</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.04953384958620807</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.07520591181311061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1002570070141223</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.1246572490593197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1483968201344425</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1714788352024083</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.1939142923783149</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2157186377270734</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2369095134793243</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2575053396779276</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2775244636727838</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2969846847994004</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.3159030190958876</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3342956118801118</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3521777369298545</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.3695638426363563</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3864676202697948</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.402902079356928</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.4188796216076737</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4344121089221914</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.4495109235345898</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.4641870198415904</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4784509682924124</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.492312992127792</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.5057829979152352</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.518870600840793</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5315851456524773</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5439357240487122</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5559311891918205</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.5675801679155602</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.5788910710943767</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.5898721025534253</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.600531266823229</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.6108763759803697</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.620915055764633</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6306547511218106</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6401027312886113</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.07299120258210529</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.05469304840555304</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04343077226349463</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03681624414230848</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03329941147113117</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.03186831266511479</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03185335253954587</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03280455665030954</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03441493906405544</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03647219832950522</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.03882779616171188</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04137681396304128</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.04404459639938345</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04677774470853881</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.04953794837839631</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0522977017283672</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0550372930132689</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05774266568615925</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06040388556331434</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0630140339663405</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06556840345969754</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06806391045148956</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07049866438587453</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07287165072007019</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07518249701437155</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07743129999340082</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07961849749316183</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08174477354625349</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08381098798808333</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.08581812424036203</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08776725058815377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.08965949148418657</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0914960063102868</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09327797368741728</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09500657991553096</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0966830104875071</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.09830844389120534</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09988404711413622</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1014109724145615</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1028903550339505</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1043233116085749</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1057109390997695</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1070543141083738</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2241725692202597</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1507560410563786</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1008243033118987</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.06692924747105591</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.04395204527798829</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02839771980986103</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.01788726573525479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01080361585494501</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.006048235206696774</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.002874902158346679</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.0007766033819034031</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0005912846821998624</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001463122700948827</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.001998370673341169</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002305580508260861</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002458681126827514</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002508038466814507</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002487971989892221</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002421866730892387</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002325652640712743</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002210174402194153</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.002082806639495179</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.001948555491807731</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.001810810298715795</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001671856766922892</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.00153322743020929</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001395941052471425</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.001260666189585824</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.00112783293795092</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0009977092741830676</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0008704531918815525</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0007461482935950008</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0006248280734315983</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0005064924702233801</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0003911191396032251</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0002786711193138369</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0001691020327771822</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>6.235961364779675e-05</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-4.161191364988729e-05</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0001428702320105573</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.0002414738589571652</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.0003374814329759651</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.000430951243025623</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.08518111628578084</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.05943919401878429</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04190927342099435</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02975978081203738</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02121867489141932</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01513310116663954</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01073439635233915</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.007501929975362956</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.005079482864858971</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.003221758226613358</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001759179926236944</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.000574261012783874</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0004144798760228978</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.00126356718903604</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.002012204407244673</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.002687570830736701</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.003308502965725148</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.00388805498546243</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.004435279225660195</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.004956463257721855</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.005455988256243827</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.005936923589379257</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.006401437880677928</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.006851082566251891</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007286987027340359</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.007709992524351119</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.008120743869624388</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.008519751986462081</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.008907436463602536</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.00928415440245247</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.009650219900147073</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01000591715618173</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01035150925246129</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01068724400904221</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01101335787188746</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01133007848259058</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.0116376263701988</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01193621606190048</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01222605681180966</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01250735308087286</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01278030485617599</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01304510786788611</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01330195374183887</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.06169737210251756</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.03997047576933735</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02578471733315827</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01638840796394665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01011976852814853</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.005923420299720377</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.003111784613336141</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.001230629369122311</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.270840581785217e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0008511133602422611</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.001391217357201357</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.001735385290586404</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.001946259154538708</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.002066441704546508</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.002124977536988562</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002141709702338095</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.002130219292719546</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.002099815477788516</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.002056886683067078</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.002005820423950684</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001949630988018286</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001890388683600072</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.00182951396627499</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001767979342433476</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001706448196540273</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001645370393707608</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001585048208723192</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001525681850854575</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001467400936891777</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001410286273493321</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.001354384947631135</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.001299720790296967</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.001246301637657825</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.001194124373099705</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.00114317843008529</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.001093448226436965</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.001044914856134658</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0009975572648070561</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0009513530659313208</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0009062791068581284</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0008623118605295603</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0008194276957173369</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0007776030625476682</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.0414086485069737</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.02752305203884595</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01822818059067041</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01203502523137956</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.007915737404580984</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005181845409508654</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003375360053760794</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002191292932996492</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001425841869292816</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0009423062911910513</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0006486861194504169</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0004828958784873458</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0004029506365867336</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0003804168128935619</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0003960211735850271</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0004366953311075838</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0004935801929953456</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0005606752232763773</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0006339224129024683</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0007105841697303194</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0007888203923733517</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0008674007663126745</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0009455089817599654</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001022609497555538</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001098356889461424</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001172534201541639</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.00124501105212448</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001315715192630469</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001384613224082094</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001451697543500557</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001516977524769119</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.00158047357448404</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001642213137139495</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001702228019835726</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001760552608464386</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.001817222684775243</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.001872274647371742</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.001925745003357925</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.001977670040647792</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002028085620338329</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002077027048411121</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002124528999539455</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.00217062547479981</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.00691402751687177</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.003647118043528979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.001844693615204818</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0008348756104156778</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0002548963695351444</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-8.985750642971892e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.0003042412648687093</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0004452660298037217</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0005442967757890191</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0006188235015990916</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0006787410052721086</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.0007297292007359429</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0007750934948577544</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0008167804370750298</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.0008559469376313814</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.000893284656322741</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0009292080547227801</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.000963965215908012</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0009977041078534706</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.001030512666123744</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.001062443225343812</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.001093527452477085</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.001123785447572965</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.001153231234967299</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.001181876013607836</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.001209730019075699</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001236803532467769</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001263107373140271</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001288653087202641</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001313452964100154</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001337519962871891</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.00136086759734827</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.001383509809061795</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.001405460843850145</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.00142673514019211</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.001447347232619948</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001467311670780691</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.00148664295327377</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.001505355474670989</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.001523463483864678</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.001540981051930546</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.001557922047797016</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.001574300120243033</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -584,6 +1592,132 @@
       </c>
       <c r="E9" t="n">
         <v>0.026547542880514</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01547125476888034</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.008467184436756911</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.004009546267614267</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001167626822526172</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.0006388416087147713</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.001776841239618026</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.002480934655640449</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.002902306934125613</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.003139066054578823</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.003255227382697867</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.003292743951631414</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.003279202814789205</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.003232788593283979</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.003165506431824341</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.003085286717755446</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.002997366066268038</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.002905196950892986</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.002811048725686738</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.002716405705021205</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.002622231305993135</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.002529143538067447</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.002437531679528284</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.0023476338691848</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.002259588692362521</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.002173469450667113</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.002089306898167979</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.00200710429675271</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.001926847359498324</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.001848510795410686</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.001772062598193904</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.001697466840733215</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.001624685482571345</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.001553679527711069</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.001484409756712775</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.001416837181347894</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.001350923319726925</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.00128663035625778</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.001223921228564379</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.001162759668787339</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.001103110216942603</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.001044938217685524</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.0009882098076154288</v>
       </c>
     </row>
   </sheetData>
